--- a/unit9-integer optimization/SelectingHotels.xlsx
+++ b/unit9-integer optimization/SelectingHotels.xlsx
@@ -1,15 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3700" yWindow="300" windowWidth="19480" windowHeight="14820" tabRatio="500"/>
+    <workbookView xWindow="3705" yWindow="300" windowWidth="19485" windowHeight="11760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <definedNames>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">Sheet1!$B$28:$B$43</definedName>
+    <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="0" hidden="1">100</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">Sheet1!$B$28:$B$43</definedName>
+    <definedName name="solver_lhs2" localSheetId="0" hidden="1">Sheet1!$B$49</definedName>
+    <definedName name="solver_lhs3" localSheetId="0" hidden="1">Sheet1!$B$50</definedName>
+    <definedName name="solver_lin" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">Sheet1!$B$45</definedName>
+    <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
+    <definedName name="solver_rel1" localSheetId="0" hidden="1">5</definedName>
+    <definedName name="solver_rel2" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel3" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rhs1" localSheetId="0" hidden="1">二进制</definedName>
+    <definedName name="solver_rhs2" localSheetId="0" hidden="1">Sheet1!$D$49</definedName>
+    <definedName name="solver_rhs3" localSheetId="0" hidden="1">Sheet1!$D$50</definedName>
+    <definedName name="solver_scl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_tim" localSheetId="0" hidden="1">100</definedName>
+    <definedName name="solver_tol" localSheetId="0" hidden="1">0.05</definedName>
+    <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
+  </definedNames>
+  <calcPr calcId="124519" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="26">
   <si>
     <t xml:space="preserve">SELECTING PROFITABLE HOTELS </t>
   </si>
@@ -58,20 +86,70 @@
   </si>
   <si>
     <t>South Lake Tahoe, California</t>
+  </si>
+  <si>
+    <t>budget left</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>decision variables</t>
+  </si>
+  <si>
+    <t>whether or not a hotel is selected</t>
+  </si>
+  <si>
+    <t>objective</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Profitability = 39.05 - 5.41*(State Population per Inn) + 5.86*(Price of the Inn) - 3.09*(Square Root of the Median Income of the Area) + 1.75*(College Students in the Area)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Profitability</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>constraints</t>
+  </si>
+  <si>
+    <t>the total cost limit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LHS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sign</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RHS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;=</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>the # limit in South Lake Tahoe</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="181" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -79,20 +157,54 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -186,11 +298,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -213,7 +353,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -222,7 +362,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -237,12 +377,58 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF00FF00"/>
+    </mruColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -567,24 +753,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.125" customWidth="1"/>
     <col min="2" max="2" width="30.5" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.1640625" customWidth="1"/>
+    <col min="3" max="3" width="31.875" customWidth="1"/>
+    <col min="4" max="4" width="19.125" customWidth="1"/>
     <col min="5" max="5" width="25" customWidth="1"/>
-    <col min="6" max="7" width="19.83203125" customWidth="1"/>
+    <col min="6" max="7" width="19.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -595,7 +781,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="16" thickBot="1">
+    <row r="2" spans="1:8" ht="15" thickBot="1">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -604,7 +790,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="31" thickBot="1">
+    <row r="3" spans="1:8" ht="43.5" thickBot="1">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -626,8 +812,11 @@
       <c r="G3" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -649,31 +838,39 @@
       <c r="G4" s="13">
         <v>-0.99598662130000004</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="6">
+      <c r="H4">
+        <f>39.05-5.41*G4+5.86*D4-3.09*E4+1.75*F4</f>
+        <v>44.242368789693991</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="28" customFormat="1">
+      <c r="A5" s="18">
         <v>2</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="25">
         <v>10000000</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="26">
         <v>1.699076193</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="26">
         <v>-0.40819856339999999</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="26">
         <v>0.31166914750000002</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="27">
         <v>-0.47427934350000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="28">
+        <f t="shared" ref="H5:H19" si="0">39.05-5.41*G5+5.86*D5-3.09*E5+1.75*F5</f>
+        <v>53.379192308345999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -695,8 +892,12 @@
       <c r="G6" s="13">
         <v>-0.47427934350000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>43.021178937635995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -718,8 +919,12 @@
       <c r="G7" s="13">
         <v>-0.47427934350000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>42.606858402455998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -741,8 +946,12 @@
       <c r="G8" s="13">
         <v>-0.47427934350000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>37.344987610357997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="6">
         <v>6</v>
       </c>
@@ -764,8 +973,12 @@
       <c r="G9" s="13">
         <v>-0.55727822859999998</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>49.095069467229003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="6">
         <v>7</v>
       </c>
@@ -787,8 +1000,12 @@
       <c r="G10" s="13">
         <v>3.1065296996999998</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>23.776865664523996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="6">
         <v>8</v>
       </c>
@@ -810,8 +1027,12 @@
       <c r="G11" s="13">
         <v>3.1065296996999998</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>23.445409236965993</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="6">
         <v>9</v>
       </c>
@@ -833,8 +1054,12 @@
       <c r="G12" s="13">
         <v>3.1065296996999998</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>28.665847975545994</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="6">
         <v>10</v>
       </c>
@@ -856,8 +1081,12 @@
       <c r="G13" s="13">
         <v>-0.42685140910000002</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>38.880673112772996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="6">
         <v>11</v>
       </c>
@@ -879,8 +1108,12 @@
       <c r="G14" s="13">
         <v>-0.42685140910000002</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>38.010599989480994</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="6">
         <v>12</v>
       </c>
@@ -902,8 +1135,12 @@
       <c r="G15" s="13">
         <v>-0.42685140910000002</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>40.289362931212992</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="6">
         <v>13</v>
       </c>
@@ -925,8 +1162,12 @@
       <c r="G16" s="13">
         <v>-0.42685140910000002</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>39.419289807920997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="6">
         <v>14</v>
       </c>
@@ -948,8 +1189,12 @@
       <c r="G17" s="13">
         <v>-0.42685140910000002</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>42.360965605354991</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="6">
         <v>15</v>
       </c>
@@ -971,8 +1216,12 @@
       <c r="G18" s="13">
         <v>-0.42685140910000002</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="16" thickBot="1">
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>38.590648738146996</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15" thickBot="1">
       <c r="A19" s="9">
         <v>16</v>
       </c>
@@ -994,8 +1243,269 @@
       <c r="G19" s="15">
         <v>-0.42685140910000002</v>
       </c>
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>37.389119187296991</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="16">
+        <f>10000000-C5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="19"/>
+      <c r="B27" s="19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="20">
+        <v>1</v>
+      </c>
+      <c r="B28" s="22">
+        <v>1</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="21">
+        <v>2</v>
+      </c>
+      <c r="B29" s="22">
+        <v>0</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="20">
+        <v>3</v>
+      </c>
+      <c r="B30" s="22">
+        <v>0</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="20">
+        <v>4</v>
+      </c>
+      <c r="B31" s="22">
+        <v>0</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="20">
+        <v>5</v>
+      </c>
+      <c r="B32" s="22">
+        <v>1</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="20">
+        <v>6</v>
+      </c>
+      <c r="B33" s="22">
+        <v>0</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="20">
+        <v>7</v>
+      </c>
+      <c r="B34" s="22">
+        <v>1</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="20">
+        <v>8</v>
+      </c>
+      <c r="B35" s="22">
+        <v>1</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="20">
+        <v>9</v>
+      </c>
+      <c r="B36" s="22">
+        <v>0</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="20">
+        <v>10</v>
+      </c>
+      <c r="B37" s="22">
+        <v>1</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="20">
+        <v>11</v>
+      </c>
+      <c r="B38" s="22">
+        <v>1</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="20">
+        <v>12</v>
+      </c>
+      <c r="B39" s="22">
+        <v>0</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="20">
+        <v>13</v>
+      </c>
+      <c r="B40" s="22">
+        <v>0</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="20">
+        <v>14</v>
+      </c>
+      <c r="B41" s="22">
+        <v>-9.3223206935254362E-12</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="20">
+        <v>15</v>
+      </c>
+      <c r="B42" s="22">
+        <v>0</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15" thickBot="1">
+      <c r="A43" s="20">
+        <v>16</v>
+      </c>
+      <c r="B43" s="22">
+        <v>0</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B45" s="29">
+        <f>SUMPRODUCT(B28:B43,H4:H19)</f>
+        <v>205.70090440340107</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="B48" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C48" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="D48" s="31" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="28.5">
+      <c r="A49" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="B49" s="33">
+        <f>SUMPRODUCT(B28:B43,C4:C19)</f>
+        <v>9724999.9999650419</v>
+      </c>
+      <c r="C49" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="D49" s="33">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="57">
+      <c r="A50" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B50" s="32">
+        <f>SUM(B37:B43)</f>
+        <v>1.9999999999906777</v>
+      </c>
+      <c r="C50" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="D50" s="32">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
